--- a/Optisches Pumpen/Optisches Pumpen.xlsx
+++ b/Optisches Pumpen/Optisches Pumpen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flori\Documents\GitHub\F-Praktikum-\Optisches Pumpen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D618EB0-A7CC-4203-BA53-4982B21ABA8B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E7B671-F5BC-4E33-A128-CD4AF557B38B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{67F2D5D2-318D-4A98-9A88-D083FA493B32}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>I_vertikal</t>
   </si>
@@ -39,9 +39,6 @@
     <t>B_horizontal</t>
   </si>
   <si>
-    <t>MHz</t>
-  </si>
-  <si>
     <t>Frequenz</t>
   </si>
   <si>
@@ -52,6 +49,39 @@
   </si>
   <si>
     <t>I 0,09 A</t>
+  </si>
+  <si>
+    <t>MHz (87)</t>
+  </si>
+  <si>
+    <t>MHz(85)</t>
+  </si>
+  <si>
+    <t>MHz (85)</t>
+  </si>
+  <si>
+    <t>I1</t>
+  </si>
+  <si>
+    <t>I2</t>
+  </si>
+  <si>
+    <t>I3</t>
+  </si>
+  <si>
+    <t>E in J 85</t>
+  </si>
+  <si>
+    <t>E in J 87</t>
+  </si>
+  <si>
+    <t>E in eV 85</t>
+  </si>
+  <si>
+    <t>E in eV 87</t>
+  </si>
+  <si>
+    <t>Energie</t>
   </si>
 </sst>
 </file>
@@ -407,33 +437,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B9CEA4-99FD-4D18-9632-3ED0039F9B20}">
-  <dimension ref="B5:I8"/>
+  <dimension ref="B5:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <f>0.15*(4/5)^(2/3)*20*10^(-6)/(4*PI()*10^(-7)*400)</f>
         <v>5.1433339573084443E-3</v>
@@ -457,7 +489,7 @@
         <v>2.6375837710147586E-4</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <f>0.2*(4/5)^(2/3)*44*10^(-6)/(4*PI()*10^(-7)*20)</f>
         <v>0.3017422588287621</v>
@@ -470,7 +502,7 @@
         <v>1510225.3315555644</v>
       </c>
       <c r="F7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H7" s="2">
         <f>0.5*9.274*10^(-24)*H6/(6.626*10^(-34))</f>
@@ -481,13 +513,13 @@
         <v>1845830.960790135</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="E8">
         <f>E7*10^(-6)</f>
         <v>1.5102253315555643</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H8">
         <f>H7*10^(-6)</f>
@@ -496,6 +528,147 @@
       <c r="I8">
         <f>I7*10^(-6)</f>
         <v>1.8458309607901349</v>
+      </c>
+      <c r="J8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f>E8/1.5</f>
+        <v>1.0068168877037096</v>
+      </c>
+      <c r="F9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f>H8/1.5</f>
+        <v>0.78307980154733003</v>
+      </c>
+      <c r="I9">
+        <f>I8/1.5</f>
+        <v>1.2305539738600899</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <f>0.5*9.274*10^(-24)*E6</f>
+        <v>1.0006753046887173E-27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10">
+        <f>0.5*9.274*10^(-24)*H6</f>
+        <v>7.7830301475789143E-28</v>
+      </c>
+      <c r="I10">
+        <f>0.5*9.274*10^(-24)*I6</f>
+        <v>1.2230475946195436E-27</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>85</v>
+      </c>
+      <c r="D12">
+        <v>87</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D13">
+        <v>1.03</v>
+      </c>
+      <c r="E13">
+        <f>6.626*10^(-34)*C13*10^(6)</f>
+        <v>4.5321840000000012E-28</v>
+      </c>
+      <c r="F13">
+        <f>6.626*10^(-34)*D13*10^(6)</f>
+        <v>6.8247800000000024E-28</v>
+      </c>
+      <c r="G13">
+        <f>E13*6.242*10^(18)</f>
+        <v>2.8289892528000009E-9</v>
+      </c>
+      <c r="H13">
+        <f>F13*6.242*10^(18)</f>
+        <v>4.2600276760000017E-9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>0.83799999999999997</v>
+      </c>
+      <c r="D14">
+        <v>1.35</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E15" si="0">6.626*10^(-34)*C14*10^(6)</f>
+        <v>5.5525880000000011E-28</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ref="F14:F15" si="1">6.626*10^(-34)*D14*10^(6)</f>
+        <v>8.9451000000000019E-28</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ref="G14:H15" si="2">E14*6.242*10^(18)</f>
+        <v>3.4659254296000011E-9</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>5.5835314200000014E-9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D15">
+        <v>1.66</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>7.3548600000000018E-28</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>1.0999160000000003E-27</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>4.5909036120000012E-9</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>6.8656756720000025E-9</v>
       </c>
     </row>
   </sheetData>
